--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -74,13 +74,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_NPkf6UHBcfqRUD</t>
-  </si>
-  <si>
-    <t>cus_NPkfbcG6BZ5YLm</t>
-  </si>
-  <si>
-    <t>cus_NPkfIRWhfLpgay</t>
+    <t>cus_NPuAUX7DbheAJC</t>
+  </si>
+  <si>
+    <t>cus_NPuAJsxbM30H9R</t>
+  </si>
+  <si>
+    <t>cus_NPuAexM6zAUeKZ</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" activeCellId="1" sqref="A16 A16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
